--- a/data/trans_bre/IP28_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP28_R-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>-22,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,61%</t>
+          <t>67,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-17,77%</t>
+          <t>-17,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>73,03%</t>
+          <t>-46,02%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 1,99</t>
+          <t>-1,62; 1,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 3,74</t>
+          <t>-0,93; 2,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 1,15</t>
+          <t>-1,79; 1,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 3,01</t>
+          <t>-1,58; 0,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-66,77; 206,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,13; 219,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-85,18; 195,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,84; 377,88</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-22,02%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>67,87%</t>
+          <t>37,61%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-17,99%</t>
+          <t>-17,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-46,02%</t>
+          <t>73,03%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 1,56</t>
+          <t>-1,68; 1,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 2,24</t>
+          <t>-1,35; 3,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 1,24</t>
+          <t>-2,09; 1,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 0,73</t>
+          <t>-0,86; 3,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,77; 206,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,13; 219,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,18; 195,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,84; 377,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP28_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP28_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>69,11%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-44,82%</t>
+          <t>-27,68%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,29</t>
+          <t>-1,07; 1,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 0,79</t>
+          <t>-2,62; 2,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 259,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-22,02%</t>
+          <t>122,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>67,87%</t>
+          <t>-40,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-17,99%</t>
+          <t>212,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-46,02%</t>
+          <t>-87,0%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 1,56</t>
+          <t>-0,52; 2,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 2,24</t>
+          <t>-1,4; 0,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 1,24</t>
+          <t>-0,3; 2,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 0,73</t>
+          <t>-2,45; 0,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>37,61%</t>
+          <t>80,14%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-17,77%</t>
+          <t>32,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>73,03%</t>
+          <t>-43,92%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 1,99</t>
+          <t>-1,97; 2,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 3,74</t>
+          <t>-1,29; 4,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 1,15</t>
+          <t>-1,54; 2,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 3,01</t>
+          <t>-1,75; 0,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-66,77; 206,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-39,13; 219,89</t>
+          <t>-64,21; 805,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-85,18; 195,22</t>
+          <t>-74,66; 455,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-46,84; 377,88</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>-27,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>22,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>-63,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>48,98%</t>
+          <t>122,04%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,11</t>
+          <t>-2,97; 1,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 1,66</t>
+          <t>-2,65; 4,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 0,84</t>
+          <t>-3,76; 0,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,7</t>
+          <t>-0,23; 4,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,44; 160,18</t>
+          <t>-86,29; 137,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,17; 152,11</t>
+          <t>-62,05; 244,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-64,61; 155,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,94; 275,5</t>
+          <t>-23,3; 722,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6,98%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>21,9%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>48,98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 1,1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,73; 1,72</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 0,95</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-0,56; 1,67</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-53,2; 151,39</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-36,26; 159,01</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-63,28; 188,91</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-44,98; 288,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP28_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP28_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 1,75</t>
+          <t>-1,07; 1,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 2,18</t>
+          <t>-2,92; 1,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 2,37</t>
+          <t>-0,51; 2,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 0,78</t>
+          <t>-1,3; 0,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 2,19</t>
+          <t>-0,3; 2,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 0,1</t>
+          <t>-2,82; 0,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 2,79</t>
+          <t>-2,14; 2,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 4,65</t>
+          <t>-1,38; 4,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 2,9</t>
+          <t>-1,53; 3,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 0,86</t>
+          <t>-1,74; 0,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,12 +893,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-64,21; 805,78</t>
+          <t>-66,56; 731,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-74,66; 455,29</t>
+          <t>-70,59; 675,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,32 +968,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 1,38</t>
+          <t>-2,98; 1,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 4,22</t>
+          <t>-2,71; 4,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 0,42</t>
+          <t>-3,79; 0,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 4,65</t>
+          <t>-0,21; 4,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-86,29; 137,13</t>
+          <t>-82,69; 159,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-62,05; 244,04</t>
+          <t>-64,25; 238,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,3; 722,94</t>
+          <t>-19,55; 591,47</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,1</t>
+          <t>-0,86; 1,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,72</t>
+          <t>-0,82; 1,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,95</t>
+          <t>-0,89; 0,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,67</t>
+          <t>-0,44; 1,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-53,2; 151,39</t>
+          <t>-53,32; 139,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-36,26; 159,01</t>
+          <t>-40,54; 131,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-63,28; 188,91</t>
+          <t>-60,41; 160,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-44,98; 288,83</t>
+          <t>-39,76; 281,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP28_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP28_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 1,8</t>
+          <t>-1,07; 1,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 1,7</t>
+          <t>-2,67; 1,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-87,0%</t>
+          <t>-85,68%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 2,53</t>
+          <t>-0,63; 2,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 0,83</t>
+          <t>-1,42; 0,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 2,21</t>
+          <t>-0,3; 2,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 0,1</t>
+          <t>-2,21; 0,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-43,92%</t>
+          <t>-36,42%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 2,8</t>
+          <t>-2,45; 2,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 4,61</t>
+          <t>-1,28; 5,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 3,04</t>
+          <t>-1,54; 2,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 0,83</t>
+          <t>-1,48; 1,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,12 +893,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-66,56; 731,57</t>
+          <t>-53,27; 870,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-70,59; 675,48</t>
+          <t>-76,37; 698,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>122,04%</t>
+          <t>107,32%</t>
         </is>
       </c>
     </row>
@@ -968,32 +968,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 1,49</t>
+          <t>-2,9; 1,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 4,12</t>
+          <t>-2,4; 4,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 0,63</t>
+          <t>-4,09; 0,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 4,46</t>
+          <t>-0,72; 4,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-82,69; 159,02</t>
+          <t>-84,96; 153,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,25; 238,23</t>
+          <t>-59,22; 277,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 591,47</t>
+          <t>-38,61; 621,94</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>48,98%</t>
+          <t>46,56%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,06</t>
+          <t>-0,92; 1,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,57</t>
+          <t>-0,87; 1,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,87</t>
+          <t>-0,95; 0,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,63</t>
+          <t>-0,57; 1,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-53,32; 139,97</t>
+          <t>-55,44; 160,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-40,54; 131,53</t>
+          <t>-41,17; 152,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-60,41; 160,48</t>
+          <t>-64,61; 155,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-39,76; 281,7</t>
+          <t>-46,02; 272,34</t>
         </is>
       </c>
     </row>
